--- a/biology/Médecine/Léproserie_des_Deux-Eaux/Léproserie_des_Deux-Eaux.xlsx
+++ b/biology/Médecine/Léproserie_des_Deux-Eaux/Léproserie_des_Deux-Eaux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_des_Deux-Eaux</t>
+          <t>Léproserie_des_Deux-Eaux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La léproserie des Deux-Eaux est située à Bréviandes dans l'actuel département de l'Aube, en région Grand Est (ex-région Champagne-Ardenne).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_des_Deux-Eaux</t>
+          <t>Léproserie_des_Deux-Eaux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La date de la fondation de la léproserie des Deux-Eaux est inconnue, mais très ancienne. Elle existait déjà au XIe siècle. La plus ancienne charte qui concerne cette institution émane du comte de Champagne Hugues en 1123. Une autre charte du comte de Champagne Henri Le Libéral la qualifie d'« antique ».
 Elle était située à Bréviandes, à côté de Troyes, entre deux ruisseaux, la Hurande et le Triffoire, d'où elle tirait son nom et qui limitaient l'établissement, à droite de la route que va de Troyes à Dijon.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%C3%A9proserie_des_Deux-Eaux</t>
+          <t>Léproserie_des_Deux-Eaux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Auguste Harmand, Notice historique sur la léproserie de la ville de Troyes, suivie de la Liste des dons faits à cette maison [etc.], Troyes, Bouquot, 1849 (lire en ligne).
  Portail de l’Aube   Portail de la médecine                    </t>
